--- a/biology/Médecine/Présentation_transverse/Présentation_transverse.xlsx
+++ b/biology/Médecine/Présentation_transverse/Présentation_transverse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pr%C3%A9sentation_transverse</t>
+          <t>Présentation_transverse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La présentation transverse désigne une position du fœtus au cours d'une grossesse où ni la tête, ni les fesses de l'enfant ne se présentent à l'entrée du bassin maternel (ou détroit supérieur). Ce terme ne s'emploie que lorsque la poche des eaux est intacte. Lorsque la poche des eaux est rompue, on parle de présentation de l'épaule.
 Cette présentation, peu fréquente (0,5 % des accouchements), est le plus souvent liée à un utérus trop vaste, qui permet au fœtus de basculer trop facilement (utérus d'une femme ayant eu de nombreuses grossesses, grossesses multiples). Une autre étiologie est la présence d'un obstacle devant la présentation, interdisant au fœtus d'adopter une position longitudinale (placenta bas situé, fibrome utérin, gros kyste ovarien).
